--- a/calcs/SomeCalculations_01.xlsx
+++ b/calcs/SomeCalculations_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4B77C-423B-5A4A-A39C-587EDFDF12BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8E271-F9B7-9A45-AF81-A2CCBDD72120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="960" windowWidth="27300" windowHeight="16540" activeTab="1" xr2:uid="{7B98E81D-F3CD-D249-8383-AB3D672FCBF1}"/>
+    <workbookView xWindow="740" yWindow="960" windowWidth="27300" windowHeight="16540" xr2:uid="{7B98E81D-F3CD-D249-8383-AB3D672FCBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="futureValue" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>User1</t>
   </si>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,11 +603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544A1808-BC89-0140-899A-DE7A93EF4E86}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -620,7 +620,7 @@
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -629,7 +629,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -638,7 +638,7 @@
         <v>31536000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4" s="23" t="s">
         <v>25</v>
       </c>
@@ -661,7 +661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
@@ -687,7 +687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -713,7 +713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -739,7 +739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -765,7 +765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -791,7 +791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -817,7 +817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -844,7 +844,7 @@
         <v>100.01305704137174</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -871,7 +871,7 @@
         <v>100.01336806171135</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
@@ -898,7 +898,7 @@
         <v>100.01353111405231</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -925,7 +925,7 @@
         <v>100.01364279818567</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -952,7 +952,7 @@
         <v>100.0136864477434</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
@@ -979,7 +979,7 @@
         <v>100.01369769200315</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>100.02611578760678</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>100.02673791047343</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>100.02706405901512</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>100.02728745763076</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>100.02737476867534</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>100.02739726027397</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>100.7601334196257</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>100.77830895901336</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>100.78783876863824</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>100.79436680651366</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>100.79691827529183</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>100.79757555174385</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>104.88088481701516</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>105.06249999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>105.10533133201649</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>105.12207585226538</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>105.12638972285848</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>109.85647563529261</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>110.10272542400305</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>110.23204197525232</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>110.3207059967898</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>110.35537794719572</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>110.3643113102859</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>110.00000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="2" t="s">
         <v>27</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>110.25</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>110.38128906249997</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>110.47130674412968</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>110.50650831489438</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>110.51557816162271</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>259.37424601000021</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>265.32977051444209</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="B49" s="2" t="s">
         <v>33</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>268.50638383899673</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>270.70414908622411</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8">
       <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>271.56798307986793</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8">
       <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>271.79095545768331</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8">
       <c r="B53" s="2" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1378061.2339822364</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8">
       <c r="B54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1729258.0815160037</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8">
       <c r="B55" s="2" t="s">
         <v>34</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1947808.0514961616</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8">
       <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>2113241.4600168322</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8">
       <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>2181652.9627617672</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8">
       <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2199631.8713507117</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8">
       <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>2095915.5637813902</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8">
       <c r="B60" s="2" t="s">
         <v>35</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>2148441.4023281098</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8">
       <c r="B61" s="2" t="s">
         <v>35</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>2175330.0983310048</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8">
       <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2193493.0534173725</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8">
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2200535.734713464</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8">
       <c r="B64" s="2" t="s">
         <v>35</v>
       </c>
@@ -2282,13 +2282,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A30253-9537-F644-AA53-33F854E839F9}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -2301,25 +2301,25 @@
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3">
         <f ca="1">NOW()</f>
-        <v>44137.80309976852</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44137.809114699077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
         <f ca="1">ROUND((B1-DATE(1970,1,1))*86400,0)</f>
-        <v>1604344588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1604345108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>31536000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51">
       <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2391,18 +2391,18 @@
       </c>
       <c r="G7" s="4">
         <f ca="1">NOW+D7</f>
-        <v>1604430988</v>
+        <v>1604431508</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">G7/86400+DATE(1970,1,1)</f>
-        <v>44138.803101851852</v>
+        <v>44138.809120370366</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">G7*B7</f>
-        <v>1604430988000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1604431508000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2427,18 +2427,18 @@
       </c>
       <c r="G8" s="4">
         <f ca="1">NOW+D8</f>
-        <v>1604517388</v>
+        <v>1604517908</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H9" ca="1" si="1">G8/86400+DATE(1970,1,1)</f>
-        <v>44139.803101851852</v>
+        <v>44139.809120370366</v>
       </c>
       <c r="I8" s="4">
         <f ca="1">G8*B8</f>
-        <v>3209034776000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3209035816000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2463,18 +2463,18 @@
       </c>
       <c r="G9" s="4">
         <f ca="1">NOW+D9</f>
-        <v>1604603788</v>
+        <v>1604604308</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44140.803101851852</v>
+        <v>44140.809120370366</v>
       </c>
       <c r="I9" s="4">
         <f ca="1">G9*B9</f>
-        <v>4813811364000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4813812924000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2499,19 +2499,19 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8">
         <f ca="1">SUM(I7:I9)</f>
-        <v>9627277128000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9627280248000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I12">
         <f ca="1">I10/TOTALSUPPLY</f>
-        <v>1604546188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1604546708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2520,1650 +2520,13 @@
         <v>201600</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3">
         <f ca="1">I12/86400+DATE(1970,1,1)</f>
-        <v>44140.136435185181</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G57" si="2">F22/SECONDS_PER_DAY</f>
-        <v>365</v>
-      </c>
-      <c r="H22" s="22">
-        <f t="shared" ref="H22:H45" si="3">E22*(1+D22/(SECONDS_PER_YEAR/F22))^(C22/F22)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H23" s="22">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="H24" s="22">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H25" s="22">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H26" s="22">
-        <f t="shared" ref="H26" si="4">E26*(1+D26/(SECONDS_PER_YEAR/F26))^(C26/F26)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="22">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:C33" si="5">SECONDS_PER_DAY/2</f>
-        <v>43200</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H28" s="22">
-        <f t="shared" si="3"/>
-        <v>100.01305704137174</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="5"/>
-        <v>43200</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H29" s="22">
-        <f t="shared" si="3"/>
-        <v>100.01336806171135</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="5"/>
-        <v>43200</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="H30" s="22">
-        <f t="shared" si="3"/>
-        <v>100.01353111405231</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="5"/>
-        <v>43200</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H31" s="22">
-        <f t="shared" si="3"/>
-        <v>100.01364279818567</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="5"/>
-        <v>43200</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-      <c r="F32">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" ref="H32" si="6">E32*(1+D32/(SECONDS_PER_YEAR/F32))^(C32/F32)</f>
-        <v>100.0136864477434</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="5"/>
-        <v>43200</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="F33">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H33" s="22">
-        <f t="shared" si="3"/>
-        <v>100.01369769200315</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:C39" si="7">SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="D34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H34" s="22">
-        <f t="shared" ref="H34:H39" si="8">E34*(1+D34/(SECONDS_PER_YEAR/F34))^(C34/F34)</f>
-        <v>100.02611578760678</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="7"/>
-        <v>86400</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H35" s="22">
-        <f t="shared" si="8"/>
-        <v>100.02673791047343</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="7"/>
-        <v>86400</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="H36" s="22">
-        <f t="shared" si="8"/>
-        <v>100.02706405901512</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="7"/>
-        <v>86400</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="F37">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H37" s="22">
-        <f t="shared" si="8"/>
-        <v>100.02728745763076</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="7"/>
-        <v>86400</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H38" s="22">
-        <f t="shared" ref="H38" si="9">E38*(1+D38/(SECONDS_PER_YEAR/F38))^(C38/F38)</f>
-        <v>100.02737476867534</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="7"/>
-        <v>86400</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H39" s="22">
-        <f t="shared" si="8"/>
-        <v>100.02739726027397</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:C45" si="10">SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-      <c r="F40">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H40" s="22">
-        <f t="shared" si="3"/>
-        <v>100.7601334196257</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="10"/>
-        <v>2505600</v>
-      </c>
-      <c r="D41" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E41">
-        <v>100</v>
-      </c>
-      <c r="F41">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H41" s="22">
-        <f t="shared" si="3"/>
-        <v>100.77830895901336</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="10"/>
-        <v>2505600</v>
-      </c>
-      <c r="D42" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="F42">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="H42" s="22">
-        <f t="shared" si="3"/>
-        <v>100.78783876863824</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="10"/>
-        <v>2505600</v>
-      </c>
-      <c r="D43" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H43" s="22">
-        <f t="shared" si="3"/>
-        <v>100.79436680651366</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="10"/>
-        <v>2505600</v>
-      </c>
-      <c r="D44" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E44">
-        <v>100</v>
-      </c>
-      <c r="F44">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H44" s="22">
-        <f t="shared" ref="H44" si="11">E44*(1+D44/(SECONDS_PER_YEAR/F44))^(C44/F44)</f>
-        <v>100.79691827529183</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="10"/>
-        <v>2505600</v>
-      </c>
-      <c r="D45" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-      <c r="F45">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H45" s="22">
-        <f t="shared" si="3"/>
-        <v>100.79757555174385</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:C51" si="12">SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="D46" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E46">
-        <v>100</v>
-      </c>
-      <c r="F46">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ref="G46:G51" si="13">F46/SECONDS_PER_DAY</f>
-        <v>365</v>
-      </c>
-      <c r="H46" s="22">
-        <f t="shared" ref="H46:H51" si="14">E46*(1+D46/(SECONDS_PER_YEAR/F46))^(C46/F46)</f>
-        <v>104.88088481701516</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="12"/>
-        <v>15768000</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="F47">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="13"/>
-        <v>182.5</v>
-      </c>
-      <c r="H47" s="22">
-        <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="12"/>
-        <v>15768000</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E48">
-        <v>100</v>
-      </c>
-      <c r="F48">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="13"/>
-        <v>91.25</v>
-      </c>
-      <c r="H48" s="22">
-        <f t="shared" si="14"/>
-        <v>105.06249999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="12"/>
-        <v>15768000</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-      <c r="F49">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="13"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H49" s="22">
-        <f t="shared" si="14"/>
-        <v>105.10533133201649</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="12"/>
-        <v>15768000</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="H50" s="22">
-        <f t="shared" si="14"/>
-        <v>105.12207585226538</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="12"/>
-        <v>15768000</v>
-      </c>
-      <c r="D51" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-      <c r="F51">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="22">
-        <f t="shared" si="14"/>
-        <v>105.12638972285848</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:C57" si="15">SECONDS_PER_DAY*360</f>
-        <v>31104000</v>
-      </c>
-      <c r="D52" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E52">
-        <v>100</v>
-      </c>
-      <c r="F52">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H52" s="22">
-        <f t="shared" ref="H52:H57" si="16">E52*(1+D52/(SECONDS_PER_YEAR/F52))^(C52/F52)</f>
-        <v>109.85647563529261</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="15"/>
-        <v>31104000</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E53">
-        <v>100</v>
-      </c>
-      <c r="F53">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H53" s="22">
-        <f t="shared" si="16"/>
-        <v>110.10272542400305</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="15"/>
-        <v>31104000</v>
-      </c>
-      <c r="D54" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E54">
-        <v>100</v>
-      </c>
-      <c r="F54">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="H54" s="22">
-        <f t="shared" si="16"/>
-        <v>110.23204197525232</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="15"/>
-        <v>31104000</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E55">
-        <v>100</v>
-      </c>
-      <c r="F55">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H55" s="22">
-        <f t="shared" si="16"/>
-        <v>110.3207059967898</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="15"/>
-        <v>31104000</v>
-      </c>
-      <c r="D56" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H56" s="22">
-        <f t="shared" ref="H56" si="17">E56*(1+D56/(SECONDS_PER_YEAR/F56))^(C56/F56)</f>
-        <v>110.35537794719572</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="15"/>
-        <v>31104000</v>
-      </c>
-      <c r="D57" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H57" s="22">
-        <f t="shared" si="16"/>
-        <v>110.3643113102859</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ref="C58:C63" si="18">SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="D58" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E58">
-        <v>100</v>
-      </c>
-      <c r="F58">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G58">
-        <f t="shared" ref="G58:G81" si="19">F58/SECONDS_PER_DAY</f>
-        <v>365</v>
-      </c>
-      <c r="H58" s="22">
-        <f t="shared" ref="H58:H63" si="20">E58*(1+D58/(SECONDS_PER_YEAR/F58))^(C58/F58)</f>
-        <v>110.00000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="18"/>
-        <v>31536000</v>
-      </c>
-      <c r="D59" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="19"/>
-        <v>182.5</v>
-      </c>
-      <c r="H59" s="22">
-        <f t="shared" si="20"/>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="18"/>
-        <v>31536000</v>
-      </c>
-      <c r="D60" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E60">
-        <v>100</v>
-      </c>
-      <c r="F60">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="19"/>
-        <v>91.25</v>
-      </c>
-      <c r="H60" s="22">
-        <f t="shared" si="20"/>
-        <v>110.38128906249997</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="18"/>
-        <v>31536000</v>
-      </c>
-      <c r="D61" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E61">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="19"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H61" s="22">
-        <f t="shared" si="20"/>
-        <v>110.47130674412968</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="18"/>
-        <v>31536000</v>
-      </c>
-      <c r="D62" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="H62" s="22">
-        <f t="shared" ref="H62" si="21">E62*(1+D62/(SECONDS_PER_YEAR/F62))^(C62/F62)</f>
-        <v>110.50650831489438</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="18"/>
-        <v>31536000</v>
-      </c>
-      <c r="D63" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-      <c r="F63">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="H63" s="22">
-        <f t="shared" si="20"/>
-        <v>110.51557816162271</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64:C69" si="22">SECONDS_PER_YEAR*10</f>
-        <v>315360000</v>
-      </c>
-      <c r="D64" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E64">
-        <v>100</v>
-      </c>
-      <c r="F64">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="19"/>
-        <v>365</v>
-      </c>
-      <c r="H64" s="22">
-        <f t="shared" ref="H64:H69" si="23">E64*(1+D64/(SECONDS_PER_YEAR/F64))^(C64/F64)</f>
-        <v>259.37424601000021</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="22"/>
-        <v>315360000</v>
-      </c>
-      <c r="D65" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E65">
-        <v>100</v>
-      </c>
-      <c r="F65">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="19"/>
-        <v>182.5</v>
-      </c>
-      <c r="H65" s="22">
-        <f t="shared" si="23"/>
-        <v>265.32977051444209</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="22"/>
-        <v>315360000</v>
-      </c>
-      <c r="D66" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E66">
-        <v>100</v>
-      </c>
-      <c r="F66">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="19"/>
-        <v>91.25</v>
-      </c>
-      <c r="H66" s="22">
-        <f t="shared" si="23"/>
-        <v>268.50638383899673</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="22"/>
-        <v>315360000</v>
-      </c>
-      <c r="D67" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E67">
-        <v>100</v>
-      </c>
-      <c r="F67">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="19"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H67" s="22">
-        <f t="shared" si="23"/>
-        <v>270.70414908622411</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="22"/>
-        <v>315360000</v>
-      </c>
-      <c r="D68" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E68">
-        <v>100</v>
-      </c>
-      <c r="F68">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="H68" s="22">
-        <f t="shared" ref="H68" si="24">E68*(1+D68/(SECONDS_PER_YEAR/F68))^(C68/F68)</f>
-        <v>271.56798307986793</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="22"/>
-        <v>315360000</v>
-      </c>
-      <c r="D69" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E69">
-        <v>100</v>
-      </c>
-      <c r="F69">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="H69" s="22">
-        <f t="shared" si="23"/>
-        <v>271.79095545768331</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:C75" si="25">SECONDS_PER_YEAR*100</f>
-        <v>3153600000</v>
-      </c>
-      <c r="D70" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E70">
-        <v>100</v>
-      </c>
-      <c r="F70">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="19"/>
-        <v>365</v>
-      </c>
-      <c r="H70" s="22">
-        <f t="shared" ref="H70:H75" si="26">E70*(1+D70/(SECONDS_PER_YEAR/F70))^(C70/F70)</f>
-        <v>1378061.2339822364</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="25"/>
-        <v>3153600000</v>
-      </c>
-      <c r="D71" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E71">
-        <v>100</v>
-      </c>
-      <c r="F71">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="19"/>
-        <v>182.5</v>
-      </c>
-      <c r="H71" s="22">
-        <f t="shared" si="26"/>
-        <v>1729258.0815160037</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="25"/>
-        <v>3153600000</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E72">
-        <v>100</v>
-      </c>
-      <c r="F72">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="19"/>
-        <v>91.25</v>
-      </c>
-      <c r="H72" s="22">
-        <f t="shared" si="26"/>
-        <v>1947808.0514961616</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="25"/>
-        <v>3153600000</v>
-      </c>
-      <c r="D73" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E73">
-        <v>100</v>
-      </c>
-      <c r="F73">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="19"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H73" s="22">
-        <f t="shared" si="26"/>
-        <v>2113241.4600168322</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="25"/>
-        <v>3153600000</v>
-      </c>
-      <c r="D74" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E74">
-        <v>100</v>
-      </c>
-      <c r="F74">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="H74" s="22">
-        <f t="shared" ref="H74" si="27">E74*(1+D74/(SECONDS_PER_YEAR/F74))^(C74/F74)</f>
-        <v>2181652.9627617672</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="25"/>
-        <v>3153600000</v>
-      </c>
-      <c r="D75" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E75">
-        <v>100</v>
-      </c>
-      <c r="F75">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="H75" s="22">
-        <f t="shared" si="26"/>
-        <v>2199631.8713507117</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ref="C76:C81" si="28">SECONDS_PER_YEAR*1000</f>
-        <v>31536000000</v>
-      </c>
-      <c r="D76" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="E76">
-        <v>100</v>
-      </c>
-      <c r="F76">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="19"/>
-        <v>365</v>
-      </c>
-      <c r="H76" s="22">
-        <f t="shared" ref="H76:H80" si="29">E76*(1+D76/(SECONDS_PER_YEAR/F76))^(C76/F76)</f>
-        <v>2095915.5637813902</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="28"/>
-        <v>31536000000</v>
-      </c>
-      <c r="D77" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="E77">
-        <v>100</v>
-      </c>
-      <c r="F77">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="19"/>
-        <v>182.5</v>
-      </c>
-      <c r="H77" s="22">
-        <f t="shared" si="29"/>
-        <v>2148441.4023281098</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="28"/>
-        <v>31536000000</v>
-      </c>
-      <c r="D78" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="E78">
-        <v>100</v>
-      </c>
-      <c r="F78">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="19"/>
-        <v>91.25</v>
-      </c>
-      <c r="H78" s="22">
-        <f t="shared" si="29"/>
-        <v>2175330.0983310048</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="28"/>
-        <v>31536000000</v>
-      </c>
-      <c r="D79" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="E79">
-        <v>100</v>
-      </c>
-      <c r="F79">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="19"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H79" s="22">
-        <f t="shared" si="29"/>
-        <v>2193493.0534173725</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="28"/>
-        <v>31536000000</v>
-      </c>
-      <c r="D80" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="E80">
-        <v>100</v>
-      </c>
-      <c r="F80">
-        <f>SECONDS_PER_DAY*7</f>
-        <v>604800</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="H80" s="22">
-        <f t="shared" si="29"/>
-        <v>2200535.734713464</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="28"/>
-        <v>31536000000</v>
-      </c>
-      <c r="D81" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="E81">
-        <v>100</v>
-      </c>
-      <c r="F81">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="H81" s="22">
-        <f t="shared" ref="H81" si="30">E81*(1+D81/(SECONDS_PER_YEAR/F81))^(C81/F81)</f>
-        <v>2202344.8732570675</v>
+        <v>44140.142453703702</v>
       </c>
     </row>
   </sheetData>
